--- a/bip1271_05_data.xlsx
+++ b/bip1271_05_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>X</t>
   </si>
@@ -184,15 +184,15 @@
   </si>
   <si>
     <t>MAE variation</t>
+  </si>
+  <si>
+    <t>Error size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000%"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,7 +247,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2781,10 +2788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30:Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3765,7 +3772,7 @@
         <v>17.259626000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3796,27 +3803,27 @@
       <c r="J30">
         <v>-6.2119138091802597</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="M30" t="s">
-        <v>46</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4">
-        <f>(N29-O29)/O29</f>
-        <v>1.1939635950889808E-2</v>
-      </c>
-      <c r="P30" s="4">
-        <f>(N29-P29)/P29</f>
-        <v>3.3911691312952801E-3</v>
-      </c>
-      <c r="Q30" s="4">
-        <f>(N29-Q29)/Q29</f>
-        <v>-1.6294443460130585E-2</v>
+        <v>55</v>
+      </c>
+      <c r="N30" s="2">
+        <f>N29-N28</f>
+        <v>3.4913390000000017</v>
+      </c>
+      <c r="O30" s="2">
+        <f>O29-O28</f>
+        <v>3.8678159999999995</v>
+      </c>
+      <c r="P30" s="2">
+        <f>P29-P28</f>
+        <v>4.6923070000000013</v>
+      </c>
+      <c r="Q30" s="2">
+        <f>Q29-Q28</f>
+        <v>5.0117850000000015</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3847,23 +3854,13 @@
       <c r="J31">
         <v>-2.1059569045901299</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" t="s">
-        <v>47</v>
-      </c>
-      <c r="N31" s="4">
-        <f>(O29-N29)/N29</f>
-        <v>-1.1798763015810211E-2</v>
-      </c>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4">
-        <f>(O29-P29)/P29</f>
-        <v>-8.4476054854416144E-3</v>
-      </c>
-      <c r="Q31" s="4">
-        <f>(O29-Q29)/Q29</f>
-        <v>-2.7900952199080196E-2</v>
-      </c>
+      <c r="M31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -3896,22 +3893,22 @@
       <c r="J32">
         <v>-6.0529784522950649</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" t="s">
-        <v>48</v>
-      </c>
-      <c r="N32" s="4">
-        <f>(P29-N29)/N29</f>
-        <v>-3.3797079699547771E-3</v>
-      </c>
-      <c r="O32" s="4">
-        <f>(P29-O29)/O29</f>
-        <v>8.5195754981534505E-3</v>
-      </c>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4">
-        <f>(P29-Q29)/Q29</f>
-        <v>-1.9619080969657181E-2</v>
+      <c r="L32" s="4"/>
+      <c r="M32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6">
+        <f>(N29-O29)/O29</f>
+        <v>1.1939635950889808E-2</v>
+      </c>
+      <c r="P32" s="6">
+        <f>(N29-P29)/P29</f>
+        <v>3.3911691312952801E-3</v>
+      </c>
+      <c r="Q32" s="6">
+        <f>(N29-Q29)/Q29</f>
+        <v>-1.6294443460130585E-2</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -3945,20 +3942,22 @@
       <c r="J33">
         <v>23.973510773852471</v>
       </c>
-      <c r="M33" t="s">
-        <v>49</v>
-      </c>
-      <c r="N33" s="4">
-        <f>(Q29-N29)/N29</f>
-        <v>1.656435033003717E-2</v>
-      </c>
-      <c r="O33" s="4">
-        <f>(Q29-O29)/O29</f>
-        <v>2.8701758593630625E-2</v>
-      </c>
-      <c r="P33" s="4">
-        <f>(Q29-P29)/P29</f>
-        <v>2.0011691974851635E-2</v>
+      <c r="L33" s="4"/>
+      <c r="M33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33" s="6">
+        <f>(O29-N29)/N29</f>
+        <v>-1.1798763015810211E-2</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6">
+        <f>(O29-P29)/P29</f>
+        <v>-8.4476054854416144E-3</v>
+      </c>
+      <c r="Q33" s="6">
+        <f>(O29-Q29)/Q29</f>
+        <v>-2.7900952199080196E-2</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -3992,23 +3991,22 @@
       <c r="J34">
         <v>-16.01324461307377</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M34" t="s">
-        <v>46</v>
-      </c>
-      <c r="O34" s="4">
-        <f>(N28-O28)/O28</f>
-        <v>4.4677756046552136E-2</v>
-      </c>
-      <c r="P34" s="4">
-        <f>(N28-P28)/P28</f>
-        <v>0.10290136294934353</v>
-      </c>
-      <c r="Q34" s="4">
-        <f>(N28-Q28)/Q28</f>
-        <v>0.10117783207669008</v>
+      <c r="L34" s="4"/>
+      <c r="M34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" s="6">
+        <f>(P29-N29)/N29</f>
+        <v>-3.3797079699547771E-3</v>
+      </c>
+      <c r="O34" s="6">
+        <f>(P29-O29)/O29</f>
+        <v>8.5195754981534505E-3</v>
+      </c>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6">
+        <f>(P29-Q29)/Q29</f>
+        <v>-1.9619080969657181E-2</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -4042,24 +4040,24 @@
       <c r="J35">
         <v>-8.0066223065368831</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" t="s">
-        <v>47</v>
-      </c>
-      <c r="N35" s="4">
-        <f>(O28-N28)/N28</f>
-        <v>-4.2767021493430972E-2</v>
-      </c>
-      <c r="P35" s="4">
-        <f>(O28-P28)/P28</f>
-        <v>5.5733556654954643E-2</v>
-      </c>
-      <c r="Q35" s="4">
-        <f>(O28-Q28)/Q28</f>
-        <v>5.408373606417656E-2</v>
-      </c>
+      <c r="M35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N35" s="6">
+        <f>(Q29-N29)/N29</f>
+        <v>1.656435033003717E-2</v>
+      </c>
+      <c r="O35" s="6">
+        <f>(Q29-O29)/O29</f>
+        <v>2.8701758593630625E-2</v>
+      </c>
+      <c r="P35" s="6">
+        <f>(Q29-P29)/P29</f>
+        <v>2.0011691974851635E-2</v>
+      </c>
+      <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -4090,22 +4088,13 @@
       <c r="J36">
         <v>36.996688846731558</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" t="s">
-        <v>48</v>
-      </c>
-      <c r="N36" s="4">
-        <f>(P28-N28)/N28</f>
-        <v>-9.330060366791823E-2</v>
-      </c>
-      <c r="O36" s="4">
-        <f>(P28-O28)/O28</f>
-        <v>-5.2791309231037385E-2</v>
-      </c>
-      <c r="Q36" s="4">
-        <f>(P28-Q28)/Q28</f>
-        <v>-1.5627244017945823E-3</v>
-      </c>
+      <c r="M36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -4138,27 +4127,81 @@
       <c r="J37">
         <v>37.498344423365779</v>
       </c>
-      <c r="L37" s="3"/>
-      <c r="M37" t="s">
+      <c r="M37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="6">
+        <f>(N28-O28)/O28</f>
+        <v>4.4677756046552136E-2</v>
+      </c>
+      <c r="P37" s="6">
+        <f>(N28-P28)/P28</f>
+        <v>0.10290136294934353</v>
+      </c>
+      <c r="Q37" s="6">
+        <f>(N28-Q28)/Q28</f>
+        <v>0.10117783207669008</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N38" s="6">
+        <f>(O28-N28)/N28</f>
+        <v>-4.2767021493430972E-2</v>
+      </c>
+      <c r="O38" s="5"/>
+      <c r="P38" s="6">
+        <f>(O28-P28)/P28</f>
+        <v>5.5733556654954643E-2</v>
+      </c>
+      <c r="Q38" s="6">
+        <f>(O28-Q28)/Q28</f>
+        <v>5.408373606417656E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N39" s="6">
+        <f>(P28-N28)/N28</f>
+        <v>-9.330060366791823E-2</v>
+      </c>
+      <c r="O39" s="6">
+        <f>(P28-O28)/O28</f>
+        <v>-5.2791309231037385E-2</v>
+      </c>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="6">
+        <f>(P28-Q28)/Q28</f>
+        <v>-1.5627244017945823E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M40" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N40" s="6">
         <f>(Q28-N28)/N28</f>
         <v>-9.1881464673040827E-2</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O40" s="6">
         <f>(Q28-O28)/O28</f>
         <v>-5.1308766290350714E-2</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P40" s="6">
         <f>(Q28-P28)/P28</f>
         <v>1.5651703316648397E-3</v>
       </c>
+      <c r="Q40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="M36:Q36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/bip1271_05_data.xlsx
+++ b/bip1271_05_data.xlsx
@@ -2790,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30:Q40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
